--- a/assets/result3.xlsx
+++ b/assets/result3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="180">
   <si>
     <t>Market</t>
   </si>
@@ -301,7 +301,7 @@
     <t>lteNrDssMode</t>
   </si>
   <si>
-    <t>MOC</t>
+    <t>SOC</t>
   </si>
   <si>
     <t>Memphis</t>
@@ -325,33 +325,213 @@
     <t>700MHz</t>
   </si>
   <si>
+    <t>AWS-1</t>
+  </si>
+  <si>
+    <t>PCS-1</t>
+  </si>
+  <si>
+    <t>850-1</t>
+  </si>
+  <si>
+    <t>AWS3-1</t>
+  </si>
+  <si>
+    <t>CBRS</t>
+  </si>
+  <si>
     <t>10MHz</t>
   </si>
   <si>
+    <t>5MHz</t>
+  </si>
+  <si>
+    <t>15MHz</t>
+  </si>
+  <si>
+    <t>20MHz</t>
+  </si>
+  <si>
     <t>cfg355-multi-carrier-10m-10m-10m-10m-5m-5m-5m-5m-config3</t>
   </si>
   <si>
-    <t>181080_1;MC;ALLEN MORGAN TN</t>
+    <t>cfg61-multi-carrier-10m-5m-6cell</t>
+  </si>
+  <si>
+    <t>cfg358-multi-carrier-20m-20m-20m-10m-5m-config3</t>
+  </si>
+  <si>
+    <t>181080_2;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_3;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_3_2;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_1_4;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_3_4;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_2_6;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_3_6;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_1_8;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_3_8;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_19;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_19_2;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_19_3;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_19_4;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_20;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_20_2;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_20_3;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_20_4;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_21;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_21_2;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_21_3;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>181080_21_4;MC;ALLEN MORGAN TN</t>
+  </si>
+  <si>
+    <t>185812_1;MC;PRESCOTT_EAST_AR</t>
+  </si>
+  <si>
+    <t>185812_2;MC;PRESCOTT_EAST_AR</t>
+  </si>
+  <si>
+    <t>185812_3;MC;PRESCOTT_EAST_AR</t>
+  </si>
+  <si>
+    <t>185812_1_2;MC;PRESCOTT_EAST_AR</t>
+  </si>
+  <si>
+    <t>185812_2_2;MC;PRESCOTT_EAST_AR</t>
+  </si>
+  <si>
+    <t>185812_3_2;MC;PRESCOTT_EAST_AR</t>
+  </si>
+  <si>
+    <t>185812_1_4;MC;PRESCOTT_EAST_AR</t>
+  </si>
+  <si>
+    <t>185812_2_4;MC;PRESCOTT_EAST_AR</t>
+  </si>
+  <si>
+    <t>185812_3_4;MC;PRESCOTT_EAST_AR</t>
+  </si>
+  <si>
+    <t>185812_1_7;MC;PRESCOTT EAST AR</t>
+  </si>
+  <si>
+    <t>185812_2_7;MC;PRESCOTT EAST AR</t>
+  </si>
+  <si>
+    <t>185812_3_7;MC;PRESCOTT EAST AR</t>
+  </si>
+  <si>
+    <t>185812_1_8;MC;PRESCOTT_EAST_AR</t>
+  </si>
+  <si>
+    <t>185812_2_8;MC;PRESCOTT_EAST_AR</t>
+  </si>
+  <si>
+    <t>185812_3_8;MC;PRESCOTT_EAST_AR</t>
   </si>
   <si>
     <t>ARTNTNBI</t>
   </si>
   <si>
+    <t>LTROARTB</t>
+  </si>
+  <si>
     <t>Capable</t>
   </si>
   <si>
+    <t>Not Capable</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>QS8656-5_V3-0F_740MHZ_02DT_PORT1</t>
   </si>
   <si>
+    <t>QS8656-5_V3-0F_2140MHZ_02DT_PORT3</t>
+  </si>
+  <si>
+    <t>QS8656-5_V3-0F_1950MHZ_02DT_PORT3</t>
+  </si>
+  <si>
+    <t>QS8656-5_V3-0F_870MHZ_02DT_PORT1</t>
+  </si>
+  <si>
+    <t>QS8610C4_V1-0P_2140MHz_02DT_Port3</t>
+  </si>
+  <si>
+    <t>QS8610C4_V1-0P_3600MHz_04DT_Port7</t>
+  </si>
+  <si>
+    <t>NHH-65C-R2B_00DT_0750</t>
+  </si>
+  <si>
+    <t>NHH-65C-R2B_00DT_2100</t>
+  </si>
+  <si>
+    <t>NHH-65C-R2B_00DT_1900</t>
+  </si>
+  <si>
+    <t>NHH-65C-R2B_00DT_0850</t>
+  </si>
+  <si>
     <t>Samsung RRH (B5/B13 RRH ORAN )</t>
   </si>
   <si>
+    <t>Samsung RRH (B2/B66A RRH ORAN )</t>
+  </si>
+  <si>
+    <t>Samsung RRH (CBRS RRH)</t>
+  </si>
+  <si>
     <t>Samsung RRH (RF4440d-13A)</t>
   </si>
   <si>
+    <t>Samsung RRH (RF4439d-25A)</t>
+  </si>
+  <si>
+    <t>Samsung RRH (RT4401-48)</t>
+  </si>
+  <si>
     <t>No Type match</t>
   </si>
   <si>
@@ -359,6 +539,18 @@
   </si>
   <si>
     <t>911_ARTNTNBI_01_ABC</t>
+  </si>
+  <si>
+    <t>D0HBBA</t>
+  </si>
+  <si>
+    <t>A3LRT4401-48A</t>
+  </si>
+  <si>
+    <t>55990,56190,56390,56590</t>
+  </si>
+  <si>
+    <t>cbsd-b</t>
   </si>
   <si>
     <t>2001:5000:a45:3143:432:292::a100</t>
@@ -719,7 +911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CR2"/>
+  <dimension ref="A1:CR37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1014,7 +1206,7 @@
     </row>
     <row r="2" spans="1:96">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
@@ -1032,16 +1224,16 @@
         <v>99</v>
       </c>
       <c r="H2">
-        <v>22</v>
+        <v>980181</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>100</v>
       </c>
       <c r="L2">
-        <v>46356481</v>
+        <v>46356482</v>
       </c>
       <c r="M2" t="s">
         <v>101</v>
@@ -1056,7 +1248,7 @@
         <v>46344</v>
       </c>
       <c r="Q2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R2">
         <v>170</v>
@@ -1065,7 +1257,7 @@
         <v>102</v>
       </c>
       <c r="T2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="U2">
         <v>5230</v>
@@ -1089,7 +1281,7 @@
         <v>29.5</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -1104,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1116,19 +1308,19 @@
         <v>12</v>
       </c>
       <c r="AM2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AP2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AQ2" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="AS2">
         <v>47157</v>
@@ -1137,43 +1329,5957 @@
         <v>2</v>
       </c>
       <c r="AU2" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="AV2">
         <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="AX2" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="AY2" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="AZ2" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="BC2" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="BF2">
         <v>267466</v>
       </c>
       <c r="BG2" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="BM2" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="BR2" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="BZ2">
         <v>39396</v>
       </c>
       <c r="CL2" t="s">
-        <v>115</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:96">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3">
+        <v>980181</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>46356483</v>
+      </c>
+      <c r="M3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3">
+        <v>35.136722</v>
+      </c>
+      <c r="O3">
+        <v>-89.945753</v>
+      </c>
+      <c r="P3">
+        <v>46344</v>
+      </c>
+      <c r="Q3">
+        <v>203</v>
+      </c>
+      <c r="R3">
+        <v>170</v>
+      </c>
+      <c r="S3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3">
+        <v>5230</v>
+      </c>
+      <c r="V3">
+        <v>23230</v>
+      </c>
+      <c r="W3">
+        <v>46</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>4</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>29.5</v>
+      </c>
+      <c r="AB3">
+        <v>240</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>12</v>
+      </c>
+      <c r="AM3">
+        <v>5</v>
+      </c>
+      <c r="AN3">
+        <v>5</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS3">
+        <v>47157</v>
+      </c>
+      <c r="AT3">
+        <v>2</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF3">
+        <v>267466</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ3">
+        <v>39396</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:96">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4">
+        <v>980181</v>
+      </c>
+      <c r="J4">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>46356512</v>
+      </c>
+      <c r="M4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4">
+        <v>35.136722</v>
+      </c>
+      <c r="O4">
+        <v>-89.945753</v>
+      </c>
+      <c r="P4">
+        <v>46344</v>
+      </c>
+      <c r="Q4">
+        <v>203</v>
+      </c>
+      <c r="R4">
+        <v>170</v>
+      </c>
+      <c r="S4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U4">
+        <v>2100</v>
+      </c>
+      <c r="V4">
+        <v>20100</v>
+      </c>
+      <c r="W4">
+        <v>47.7</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>29.5</v>
+      </c>
+      <c r="AB4">
+        <v>240</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>5</v>
+      </c>
+      <c r="AI4">
+        <v>5</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>12</v>
+      </c>
+      <c r="AM4">
+        <v>5</v>
+      </c>
+      <c r="AN4">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS4">
+        <v>47157</v>
+      </c>
+      <c r="AT4">
+        <v>2</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF4">
+        <v>267466</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ4">
+        <v>39396</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5">
+        <v>980181</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>46356494</v>
+      </c>
+      <c r="M5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5">
+        <v>35.136722</v>
+      </c>
+      <c r="O5">
+        <v>-89.945753</v>
+      </c>
+      <c r="P5">
+        <v>46344</v>
+      </c>
+      <c r="Q5">
+        <v>201</v>
+      </c>
+      <c r="R5">
+        <v>170</v>
+      </c>
+      <c r="S5" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" t="s">
+        <v>109</v>
+      </c>
+      <c r="U5">
+        <v>975</v>
+      </c>
+      <c r="V5">
+        <v>18975</v>
+      </c>
+      <c r="W5">
+        <v>43</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>29.5</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>3</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>12</v>
+      </c>
+      <c r="AM5">
+        <v>3</v>
+      </c>
+      <c r="AN5">
+        <v>3</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS5">
+        <v>47157</v>
+      </c>
+      <c r="AT5">
+        <v>2</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF5">
+        <v>267466</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ5">
+        <v>39396</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:96">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6">
+        <v>980181</v>
+      </c>
+      <c r="J6">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>46356514</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6">
+        <v>35.136722</v>
+      </c>
+      <c r="O6">
+        <v>-89.945753</v>
+      </c>
+      <c r="P6">
+        <v>46344</v>
+      </c>
+      <c r="Q6">
+        <v>203</v>
+      </c>
+      <c r="R6">
+        <v>170</v>
+      </c>
+      <c r="S6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6">
+        <v>975</v>
+      </c>
+      <c r="V6">
+        <v>18975</v>
+      </c>
+      <c r="W6">
+        <v>43</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>29.5</v>
+      </c>
+      <c r="AB6">
+        <v>240</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>5</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>12</v>
+      </c>
+      <c r="AM6">
+        <v>5</v>
+      </c>
+      <c r="AN6">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS6">
+        <v>47157</v>
+      </c>
+      <c r="AT6">
+        <v>2</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF6">
+        <v>267466</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ6">
+        <v>39396</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:96">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7">
+        <v>980181</v>
+      </c>
+      <c r="J7">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>46356506</v>
+      </c>
+      <c r="M7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7">
+        <v>35.136722</v>
+      </c>
+      <c r="O7">
+        <v>-89.945753</v>
+      </c>
+      <c r="P7">
+        <v>46344</v>
+      </c>
+      <c r="Q7">
+        <v>202</v>
+      </c>
+      <c r="R7">
+        <v>170</v>
+      </c>
+      <c r="S7" t="s">
+        <v>105</v>
+      </c>
+      <c r="T7" t="s">
+        <v>108</v>
+      </c>
+      <c r="U7">
+        <v>2450</v>
+      </c>
+      <c r="V7">
+        <v>20450</v>
+      </c>
+      <c r="W7">
+        <v>43</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>29.5</v>
+      </c>
+      <c r="AB7">
+        <v>120</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>12</v>
+      </c>
+      <c r="AM7">
+        <v>4</v>
+      </c>
+      <c r="AN7">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS7">
+        <v>47157</v>
+      </c>
+      <c r="AT7">
+        <v>2</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF7">
+        <v>267466</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ7">
+        <v>39396</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:96">
+      <c r="A8" s="1">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8">
+        <v>980181</v>
+      </c>
+      <c r="J8">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>46356516</v>
+      </c>
+      <c r="M8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8">
+        <v>35.136722</v>
+      </c>
+      <c r="O8">
+        <v>-89.945753</v>
+      </c>
+      <c r="P8">
+        <v>46344</v>
+      </c>
+      <c r="Q8">
+        <v>203</v>
+      </c>
+      <c r="R8">
+        <v>170</v>
+      </c>
+      <c r="S8" t="s">
+        <v>105</v>
+      </c>
+      <c r="T8" t="s">
+        <v>108</v>
+      </c>
+      <c r="U8">
+        <v>2450</v>
+      </c>
+      <c r="V8">
+        <v>20450</v>
+      </c>
+      <c r="W8">
+        <v>43</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>29.5</v>
+      </c>
+      <c r="AB8">
+        <v>240</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>2</v>
+      </c>
+      <c r="AI8">
+        <v>2</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>12</v>
+      </c>
+      <c r="AM8">
+        <v>5</v>
+      </c>
+      <c r="AN8">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS8">
+        <v>47157</v>
+      </c>
+      <c r="AT8">
+        <v>2</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF8">
+        <v>267466</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ8">
+        <v>39396</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:96">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9">
+        <v>980181</v>
+      </c>
+      <c r="J9">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>46356498</v>
+      </c>
+      <c r="M9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9">
+        <v>35.136722</v>
+      </c>
+      <c r="O9">
+        <v>-89.945753</v>
+      </c>
+      <c r="P9">
+        <v>46344</v>
+      </c>
+      <c r="Q9">
+        <v>201</v>
+      </c>
+      <c r="R9">
+        <v>170</v>
+      </c>
+      <c r="S9" t="s">
+        <v>106</v>
+      </c>
+      <c r="T9" t="s">
+        <v>110</v>
+      </c>
+      <c r="U9">
+        <v>66911</v>
+      </c>
+      <c r="V9">
+        <v>132447</v>
+      </c>
+      <c r="W9">
+        <v>47.7</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>29.5</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>6</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>12</v>
+      </c>
+      <c r="AM9">
+        <v>3</v>
+      </c>
+      <c r="AN9">
+        <v>3</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS9">
+        <v>47157</v>
+      </c>
+      <c r="AT9">
+        <v>2</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF9">
+        <v>267466</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ9">
+        <v>39396</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:96">
+      <c r="A10" s="1">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10">
+        <v>980181</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>46356518</v>
+      </c>
+      <c r="M10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10">
+        <v>35.136722</v>
+      </c>
+      <c r="O10">
+        <v>-89.945753</v>
+      </c>
+      <c r="P10">
+        <v>46344</v>
+      </c>
+      <c r="Q10">
+        <v>203</v>
+      </c>
+      <c r="R10">
+        <v>170</v>
+      </c>
+      <c r="S10" t="s">
+        <v>106</v>
+      </c>
+      <c r="T10" t="s">
+        <v>110</v>
+      </c>
+      <c r="U10">
+        <v>66911</v>
+      </c>
+      <c r="V10">
+        <v>132447</v>
+      </c>
+      <c r="W10">
+        <v>47.7</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>29.5</v>
+      </c>
+      <c r="AB10">
+        <v>240</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>2</v>
+      </c>
+      <c r="AI10">
+        <v>8</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>12</v>
+      </c>
+      <c r="AM10">
+        <v>5</v>
+      </c>
+      <c r="AN10">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS10">
+        <v>47157</v>
+      </c>
+      <c r="AT10">
+        <v>2</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF10">
+        <v>267466</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ10">
+        <v>39396</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:96">
+      <c r="A11" s="1">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11">
+        <v>980181</v>
+      </c>
+      <c r="J11">
+        <v>191</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>46356671</v>
+      </c>
+      <c r="M11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11">
+        <v>35.136722</v>
+      </c>
+      <c r="O11">
+        <v>-89.945753</v>
+      </c>
+      <c r="P11">
+        <v>46344</v>
+      </c>
+      <c r="Q11">
+        <v>201</v>
+      </c>
+      <c r="R11">
+        <v>170</v>
+      </c>
+      <c r="S11" t="s">
+        <v>107</v>
+      </c>
+      <c r="T11" t="s">
+        <v>108</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>30.9</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Y11">
+        <v>4</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>29.5</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>2</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>6</v>
+      </c>
+      <c r="AJ11">
+        <v>6</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>12</v>
+      </c>
+      <c r="AM11">
+        <v>3</v>
+      </c>
+      <c r="AN11">
+        <v>3</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS11">
+        <v>47157</v>
+      </c>
+      <c r="AT11">
+        <v>4</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF11">
+        <v>267466</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ11">
+        <v>39396</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG11">
+        <v>37</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="CK11">
+        <v>13.148</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:96">
+      <c r="A12" s="1">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12">
+        <v>980181</v>
+      </c>
+      <c r="J12">
+        <v>192</v>
+      </c>
+      <c r="K12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>46356672</v>
+      </c>
+      <c r="M12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12">
+        <v>35.136722</v>
+      </c>
+      <c r="O12">
+        <v>-89.945753</v>
+      </c>
+      <c r="P12">
+        <v>46344</v>
+      </c>
+      <c r="Q12">
+        <v>201</v>
+      </c>
+      <c r="R12">
+        <v>170</v>
+      </c>
+      <c r="S12" t="s">
+        <v>107</v>
+      </c>
+      <c r="T12" t="s">
+        <v>111</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>30.9</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>4</v>
+      </c>
+      <c r="Z12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>29.5</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>6</v>
+      </c>
+      <c r="AJ12">
+        <v>6</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>12</v>
+      </c>
+      <c r="AM12">
+        <v>3</v>
+      </c>
+      <c r="AN12">
+        <v>3</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS12">
+        <v>47157</v>
+      </c>
+      <c r="AT12">
+        <v>4</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF12">
+        <v>267466</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ12">
+        <v>39396</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>1</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG12">
+        <v>37</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="CK12">
+        <v>13.148</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:96">
+      <c r="A13" s="1">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>980181</v>
+      </c>
+      <c r="J13">
+        <v>193</v>
+      </c>
+      <c r="K13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>46356673</v>
+      </c>
+      <c r="M13" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13">
+        <v>35.136722</v>
+      </c>
+      <c r="O13">
+        <v>-89.945753</v>
+      </c>
+      <c r="P13">
+        <v>46344</v>
+      </c>
+      <c r="Q13">
+        <v>201</v>
+      </c>
+      <c r="R13">
+        <v>170</v>
+      </c>
+      <c r="S13" t="s">
+        <v>107</v>
+      </c>
+      <c r="T13" t="s">
+        <v>111</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>30.9</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+      <c r="Y13">
+        <v>4</v>
+      </c>
+      <c r="Z13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>29.5</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>2</v>
+      </c>
+      <c r="AI13">
+        <v>7</v>
+      </c>
+      <c r="AJ13">
+        <v>6</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>12</v>
+      </c>
+      <c r="AM13">
+        <v>3</v>
+      </c>
+      <c r="AN13">
+        <v>3</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS13">
+        <v>47157</v>
+      </c>
+      <c r="AT13">
+        <v>4</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF13">
+        <v>267466</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ13">
+        <v>39396</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>2</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG13">
+        <v>37</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="CK13">
+        <v>13.148</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:96">
+      <c r="A14" s="1">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14">
+        <v>980181</v>
+      </c>
+      <c r="J14">
+        <v>194</v>
+      </c>
+      <c r="K14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>46356674</v>
+      </c>
+      <c r="M14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14">
+        <v>35.136722</v>
+      </c>
+      <c r="O14">
+        <v>-89.945753</v>
+      </c>
+      <c r="P14">
+        <v>46344</v>
+      </c>
+      <c r="Q14">
+        <v>201</v>
+      </c>
+      <c r="R14">
+        <v>170</v>
+      </c>
+      <c r="S14" t="s">
+        <v>107</v>
+      </c>
+      <c r="T14" t="s">
+        <v>111</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>30.9</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>29.5</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>3</v>
+      </c>
+      <c r="AI14">
+        <v>7</v>
+      </c>
+      <c r="AJ14">
+        <v>6</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>12</v>
+      </c>
+      <c r="AM14">
+        <v>3</v>
+      </c>
+      <c r="AN14">
+        <v>3</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS14">
+        <v>47157</v>
+      </c>
+      <c r="AT14">
+        <v>4</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF14">
+        <v>267466</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ14">
+        <v>39396</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>3</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG14">
+        <v>37</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="CK14">
+        <v>13.148</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:96">
+      <c r="A15" s="1">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15">
+        <v>980181</v>
+      </c>
+      <c r="J15">
+        <v>201</v>
+      </c>
+      <c r="K15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>46356681</v>
+      </c>
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15">
+        <v>35.136722</v>
+      </c>
+      <c r="O15">
+        <v>-89.945753</v>
+      </c>
+      <c r="P15">
+        <v>46344</v>
+      </c>
+      <c r="Q15">
+        <v>202</v>
+      </c>
+      <c r="R15">
+        <v>170</v>
+      </c>
+      <c r="S15" t="s">
+        <v>107</v>
+      </c>
+      <c r="T15" t="s">
+        <v>108</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>30.9</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>29.5</v>
+      </c>
+      <c r="AB15">
+        <v>120</v>
+      </c>
+      <c r="AF15">
+        <v>2</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>8</v>
+      </c>
+      <c r="AJ15">
+        <v>8</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>12</v>
+      </c>
+      <c r="AM15">
+        <v>4</v>
+      </c>
+      <c r="AN15">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS15">
+        <v>47157</v>
+      </c>
+      <c r="AT15">
+        <v>4</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF15">
+        <v>267466</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ15">
+        <v>39396</v>
+      </c>
+      <c r="CB15">
+        <v>1</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG15">
+        <v>37</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="CK15">
+        <v>13.148</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:96">
+      <c r="A16" s="1">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16">
+        <v>980181</v>
+      </c>
+      <c r="J16">
+        <v>202</v>
+      </c>
+      <c r="K16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>46356682</v>
+      </c>
+      <c r="M16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16">
+        <v>35.136722</v>
+      </c>
+      <c r="O16">
+        <v>-89.945753</v>
+      </c>
+      <c r="P16">
+        <v>46344</v>
+      </c>
+      <c r="Q16">
+        <v>202</v>
+      </c>
+      <c r="R16">
+        <v>170</v>
+      </c>
+      <c r="S16" t="s">
+        <v>107</v>
+      </c>
+      <c r="T16" t="s">
+        <v>111</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>30.9</v>
+      </c>
+      <c r="X16">
+        <v>4</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>29.5</v>
+      </c>
+      <c r="AB16">
+        <v>120</v>
+      </c>
+      <c r="AF16">
+        <v>2</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>8</v>
+      </c>
+      <c r="AJ16">
+        <v>8</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>12</v>
+      </c>
+      <c r="AM16">
+        <v>4</v>
+      </c>
+      <c r="AN16">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS16">
+        <v>47157</v>
+      </c>
+      <c r="AT16">
+        <v>4</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF16">
+        <v>267466</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ16">
+        <v>39396</v>
+      </c>
+      <c r="CB16">
+        <v>1</v>
+      </c>
+      <c r="CC16">
+        <v>1</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG16">
+        <v>37</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="CK16">
+        <v>13.148</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:90">
+      <c r="A17" s="1">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17">
+        <v>980181</v>
+      </c>
+      <c r="J17">
+        <v>203</v>
+      </c>
+      <c r="K17" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>46356683</v>
+      </c>
+      <c r="M17" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17">
+        <v>35.136722</v>
+      </c>
+      <c r="O17">
+        <v>-89.945753</v>
+      </c>
+      <c r="P17">
+        <v>46344</v>
+      </c>
+      <c r="Q17">
+        <v>202</v>
+      </c>
+      <c r="R17">
+        <v>170</v>
+      </c>
+      <c r="S17" t="s">
+        <v>107</v>
+      </c>
+      <c r="T17" t="s">
+        <v>111</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>30.9</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+      <c r="Z17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>29.5</v>
+      </c>
+      <c r="AB17">
+        <v>120</v>
+      </c>
+      <c r="AF17">
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>2</v>
+      </c>
+      <c r="AI17">
+        <v>9</v>
+      </c>
+      <c r="AJ17">
+        <v>8</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>12</v>
+      </c>
+      <c r="AM17">
+        <v>4</v>
+      </c>
+      <c r="AN17">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS17">
+        <v>47157</v>
+      </c>
+      <c r="AT17">
+        <v>4</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF17">
+        <v>267466</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ17">
+        <v>39396</v>
+      </c>
+      <c r="CB17">
+        <v>1</v>
+      </c>
+      <c r="CC17">
+        <v>2</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG17">
+        <v>37</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="CK17">
+        <v>13.148</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:90">
+      <c r="A18" s="1">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18">
+        <v>980181</v>
+      </c>
+      <c r="J18">
+        <v>204</v>
+      </c>
+      <c r="K18" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>46356684</v>
+      </c>
+      <c r="M18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18">
+        <v>35.136722</v>
+      </c>
+      <c r="O18">
+        <v>-89.945753</v>
+      </c>
+      <c r="P18">
+        <v>46344</v>
+      </c>
+      <c r="Q18">
+        <v>202</v>
+      </c>
+      <c r="R18">
+        <v>170</v>
+      </c>
+      <c r="S18" t="s">
+        <v>107</v>
+      </c>
+      <c r="T18" t="s">
+        <v>111</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>30.9</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <v>4</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>29.5</v>
+      </c>
+      <c r="AB18">
+        <v>120</v>
+      </c>
+      <c r="AF18">
+        <v>2</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>3</v>
+      </c>
+      <c r="AI18">
+        <v>9</v>
+      </c>
+      <c r="AJ18">
+        <v>8</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>12</v>
+      </c>
+      <c r="AM18">
+        <v>4</v>
+      </c>
+      <c r="AN18">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS18">
+        <v>47157</v>
+      </c>
+      <c r="AT18">
+        <v>4</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF18">
+        <v>267466</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ18">
+        <v>39396</v>
+      </c>
+      <c r="CB18">
+        <v>1</v>
+      </c>
+      <c r="CC18">
+        <v>3</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG18">
+        <v>37</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="CK18">
+        <v>13.148</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:90">
+      <c r="A19" s="1">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19">
+        <v>980181</v>
+      </c>
+      <c r="J19">
+        <v>211</v>
+      </c>
+      <c r="K19" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>46356691</v>
+      </c>
+      <c r="M19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19">
+        <v>35.136722</v>
+      </c>
+      <c r="O19">
+        <v>-89.945753</v>
+      </c>
+      <c r="P19">
+        <v>46344</v>
+      </c>
+      <c r="Q19">
+        <v>203</v>
+      </c>
+      <c r="R19">
+        <v>170</v>
+      </c>
+      <c r="S19" t="s">
+        <v>107</v>
+      </c>
+      <c r="T19" t="s">
+        <v>108</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>30.9</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>4</v>
+      </c>
+      <c r="Z19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>29.5</v>
+      </c>
+      <c r="AB19">
+        <v>240</v>
+      </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
+      <c r="AG19">
+        <v>2</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>10</v>
+      </c>
+      <c r="AJ19">
+        <v>10</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>12</v>
+      </c>
+      <c r="AM19">
+        <v>3</v>
+      </c>
+      <c r="AN19">
+        <v>5</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS19">
+        <v>47157</v>
+      </c>
+      <c r="AT19">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF19">
+        <v>267466</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ19">
+        <v>39396</v>
+      </c>
+      <c r="CB19">
+        <v>2</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG19">
+        <v>37</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI19" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ19" t="b">
+        <v>1</v>
+      </c>
+      <c r="CK19">
+        <v>13.148</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:90">
+      <c r="A20" s="1">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20">
+        <v>980181</v>
+      </c>
+      <c r="J20">
+        <v>212</v>
+      </c>
+      <c r="K20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>46356692</v>
+      </c>
+      <c r="M20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N20">
+        <v>35.136722</v>
+      </c>
+      <c r="O20">
+        <v>-89.945753</v>
+      </c>
+      <c r="P20">
+        <v>46344</v>
+      </c>
+      <c r="Q20">
+        <v>203</v>
+      </c>
+      <c r="R20">
+        <v>170</v>
+      </c>
+      <c r="S20" t="s">
+        <v>107</v>
+      </c>
+      <c r="T20" t="s">
+        <v>111</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>30.9</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>4</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>29.5</v>
+      </c>
+      <c r="AB20">
+        <v>240</v>
+      </c>
+      <c r="AF20">
+        <v>2</v>
+      </c>
+      <c r="AG20">
+        <v>2</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>10</v>
+      </c>
+      <c r="AJ20">
+        <v>10</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>12</v>
+      </c>
+      <c r="AM20">
+        <v>3</v>
+      </c>
+      <c r="AN20">
+        <v>5</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS20">
+        <v>47157</v>
+      </c>
+      <c r="AT20">
+        <v>4</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF20">
+        <v>267466</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ20">
+        <v>39396</v>
+      </c>
+      <c r="CB20">
+        <v>2</v>
+      </c>
+      <c r="CC20">
+        <v>1</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG20">
+        <v>37</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="CK20">
+        <v>13.148</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:90">
+      <c r="A21" s="1">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21">
+        <v>980181</v>
+      </c>
+      <c r="J21">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>46356693</v>
+      </c>
+      <c r="M21" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21">
+        <v>35.136722</v>
+      </c>
+      <c r="O21">
+        <v>-89.945753</v>
+      </c>
+      <c r="P21">
+        <v>46344</v>
+      </c>
+      <c r="Q21">
+        <v>203</v>
+      </c>
+      <c r="R21">
+        <v>170</v>
+      </c>
+      <c r="S21" t="s">
+        <v>107</v>
+      </c>
+      <c r="T21" t="s">
+        <v>111</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>30.9</v>
+      </c>
+      <c r="X21">
+        <v>4</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+      <c r="Z21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>29.5</v>
+      </c>
+      <c r="AB21">
+        <v>240</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <v>2</v>
+      </c>
+      <c r="AH21">
+        <v>2</v>
+      </c>
+      <c r="AI21">
+        <v>11</v>
+      </c>
+      <c r="AJ21">
+        <v>10</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>12</v>
+      </c>
+      <c r="AM21">
+        <v>3</v>
+      </c>
+      <c r="AN21">
+        <v>5</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS21">
+        <v>47157</v>
+      </c>
+      <c r="AT21">
+        <v>4</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF21">
+        <v>267466</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ21">
+        <v>39396</v>
+      </c>
+      <c r="CB21">
+        <v>2</v>
+      </c>
+      <c r="CC21">
+        <v>2</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG21">
+        <v>37</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI21" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="CK21">
+        <v>13.148</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:90">
+      <c r="A22" s="1">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22">
+        <v>980181</v>
+      </c>
+      <c r="J22">
+        <v>214</v>
+      </c>
+      <c r="K22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>46356694</v>
+      </c>
+      <c r="M22" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22">
+        <v>35.136722</v>
+      </c>
+      <c r="O22">
+        <v>-89.945753</v>
+      </c>
+      <c r="P22">
+        <v>46344</v>
+      </c>
+      <c r="Q22">
+        <v>203</v>
+      </c>
+      <c r="R22">
+        <v>170</v>
+      </c>
+      <c r="S22" t="s">
+        <v>107</v>
+      </c>
+      <c r="T22" t="s">
+        <v>111</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>30.9</v>
+      </c>
+      <c r="X22">
+        <v>4</v>
+      </c>
+      <c r="Y22">
+        <v>4</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>29.5</v>
+      </c>
+      <c r="AB22">
+        <v>240</v>
+      </c>
+      <c r="AF22">
+        <v>2</v>
+      </c>
+      <c r="AG22">
+        <v>2</v>
+      </c>
+      <c r="AH22">
+        <v>3</v>
+      </c>
+      <c r="AI22">
+        <v>11</v>
+      </c>
+      <c r="AJ22">
+        <v>10</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>12</v>
+      </c>
+      <c r="AM22">
+        <v>3</v>
+      </c>
+      <c r="AN22">
+        <v>5</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS22">
+        <v>47157</v>
+      </c>
+      <c r="AT22">
+        <v>4</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF22">
+        <v>267466</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ22">
+        <v>39396</v>
+      </c>
+      <c r="CB22">
+        <v>2</v>
+      </c>
+      <c r="CC22">
+        <v>3</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG22">
+        <v>37</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="CK22">
+        <v>13.148</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:90">
+      <c r="A23" s="1">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23">
+        <v>980181</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>47567873</v>
+      </c>
+      <c r="M23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23">
+        <v>33.796378</v>
+      </c>
+      <c r="O23">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P23">
+        <v>47477</v>
+      </c>
+      <c r="Q23">
+        <v>141</v>
+      </c>
+      <c r="R23">
+        <v>150</v>
+      </c>
+      <c r="S23" t="s">
+        <v>102</v>
+      </c>
+      <c r="T23" t="s">
+        <v>108</v>
+      </c>
+      <c r="U23">
+        <v>5230</v>
+      </c>
+      <c r="V23">
+        <v>23230</v>
+      </c>
+      <c r="W23">
+        <v>46</v>
+      </c>
+      <c r="X23">
+        <v>4</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>29.5</v>
+      </c>
+      <c r="AB23">
+        <v>70</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>12</v>
+      </c>
+      <c r="AM23">
+        <v>3</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS23">
+        <v>5099</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF23">
+        <v>223983</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ23">
+        <v>46158</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:90">
+      <c r="A24" s="1">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24">
+        <v>980181</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>47567874</v>
+      </c>
+      <c r="M24" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24">
+        <v>33.796378</v>
+      </c>
+      <c r="O24">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P24">
+        <v>47477</v>
+      </c>
+      <c r="Q24">
+        <v>142</v>
+      </c>
+      <c r="R24">
+        <v>150</v>
+      </c>
+      <c r="S24" t="s">
+        <v>102</v>
+      </c>
+      <c r="T24" t="s">
+        <v>108</v>
+      </c>
+      <c r="U24">
+        <v>5230</v>
+      </c>
+      <c r="V24">
+        <v>23230</v>
+      </c>
+      <c r="W24">
+        <v>46</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>29.5</v>
+      </c>
+      <c r="AB24">
+        <v>190</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>12</v>
+      </c>
+      <c r="AM24">
+        <v>4</v>
+      </c>
+      <c r="AN24">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS24">
+        <v>5099</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF24">
+        <v>223983</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ24">
+        <v>46158</v>
+      </c>
+      <c r="CL24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:90">
+      <c r="A25" s="1">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25">
+        <v>980181</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>47567875</v>
+      </c>
+      <c r="M25" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25">
+        <v>33.796378</v>
+      </c>
+      <c r="O25">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P25">
+        <v>47477</v>
+      </c>
+      <c r="Q25">
+        <v>143</v>
+      </c>
+      <c r="R25">
+        <v>150</v>
+      </c>
+      <c r="S25" t="s">
+        <v>102</v>
+      </c>
+      <c r="T25" t="s">
+        <v>108</v>
+      </c>
+      <c r="U25">
+        <v>5230</v>
+      </c>
+      <c r="V25">
+        <v>23230</v>
+      </c>
+      <c r="W25">
+        <v>46</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>29.5</v>
+      </c>
+      <c r="AB25">
+        <v>300</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>2</v>
+      </c>
+      <c r="AI25">
+        <v>2</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>12</v>
+      </c>
+      <c r="AM25">
+        <v>5</v>
+      </c>
+      <c r="AN25">
+        <v>5</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS25">
+        <v>5099</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF25">
+        <v>223983</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ25">
+        <v>46158</v>
+      </c>
+      <c r="CL25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:90">
+      <c r="A26" s="1">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26">
+        <v>980181</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26">
+        <v>47567884</v>
+      </c>
+      <c r="M26" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26">
+        <v>33.796378</v>
+      </c>
+      <c r="O26">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P26">
+        <v>47477</v>
+      </c>
+      <c r="Q26">
+        <v>141</v>
+      </c>
+      <c r="R26">
+        <v>150</v>
+      </c>
+      <c r="S26" t="s">
+        <v>103</v>
+      </c>
+      <c r="T26" t="s">
+        <v>111</v>
+      </c>
+      <c r="U26">
+        <v>2050</v>
+      </c>
+      <c r="V26">
+        <v>20050</v>
+      </c>
+      <c r="W26">
+        <v>46</v>
+      </c>
+      <c r="X26">
+        <v>4</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>29.5</v>
+      </c>
+      <c r="AB26">
+        <v>70</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>3</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>12</v>
+      </c>
+      <c r="AM26">
+        <v>3</v>
+      </c>
+      <c r="AN26">
+        <v>3</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS26">
+        <v>5099</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF26">
+        <v>223983</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ26">
+        <v>46158</v>
+      </c>
+      <c r="CL26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:90">
+      <c r="A27" s="1">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <v>980181</v>
+      </c>
+      <c r="J27">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>47567894</v>
+      </c>
+      <c r="M27" t="s">
+        <v>101</v>
+      </c>
+      <c r="N27">
+        <v>33.796378</v>
+      </c>
+      <c r="O27">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P27">
+        <v>47477</v>
+      </c>
+      <c r="Q27">
+        <v>142</v>
+      </c>
+      <c r="R27">
+        <v>150</v>
+      </c>
+      <c r="S27" t="s">
+        <v>103</v>
+      </c>
+      <c r="T27" t="s">
+        <v>111</v>
+      </c>
+      <c r="U27">
+        <v>2050</v>
+      </c>
+      <c r="V27">
+        <v>20050</v>
+      </c>
+      <c r="W27">
+        <v>46</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Y27">
+        <v>4</v>
+      </c>
+      <c r="Z27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>29.5</v>
+      </c>
+      <c r="AB27">
+        <v>190</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>4</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>12</v>
+      </c>
+      <c r="AM27">
+        <v>4</v>
+      </c>
+      <c r="AN27">
+        <v>4</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS27">
+        <v>5099</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF27">
+        <v>223983</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ27">
+        <v>46158</v>
+      </c>
+      <c r="CL27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:90">
+      <c r="A28" s="1">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28">
+        <v>980181</v>
+      </c>
+      <c r="J28">
+        <v>32</v>
+      </c>
+      <c r="K28" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>47567904</v>
+      </c>
+      <c r="M28" t="s">
+        <v>101</v>
+      </c>
+      <c r="N28">
+        <v>33.796378</v>
+      </c>
+      <c r="O28">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P28">
+        <v>47477</v>
+      </c>
+      <c r="Q28">
+        <v>143</v>
+      </c>
+      <c r="R28">
+        <v>150</v>
+      </c>
+      <c r="S28" t="s">
+        <v>103</v>
+      </c>
+      <c r="T28" t="s">
+        <v>111</v>
+      </c>
+      <c r="U28">
+        <v>2050</v>
+      </c>
+      <c r="V28">
+        <v>20050</v>
+      </c>
+      <c r="W28">
+        <v>46</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="Y28">
+        <v>4</v>
+      </c>
+      <c r="Z28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>29.5</v>
+      </c>
+      <c r="AB28">
+        <v>300</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28">
+        <v>2</v>
+      </c>
+      <c r="AI28">
+        <v>5</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>12</v>
+      </c>
+      <c r="AM28">
+        <v>5</v>
+      </c>
+      <c r="AN28">
+        <v>5</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS28">
+        <v>5099</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF28">
+        <v>223983</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ28">
+        <v>46158</v>
+      </c>
+      <c r="CL28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:90">
+      <c r="A29" s="1">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29">
+        <v>980181</v>
+      </c>
+      <c r="J29">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>47567886</v>
+      </c>
+      <c r="M29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N29">
+        <v>33.796378</v>
+      </c>
+      <c r="O29">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P29">
+        <v>47477</v>
+      </c>
+      <c r="Q29">
+        <v>141</v>
+      </c>
+      <c r="R29">
+        <v>150</v>
+      </c>
+      <c r="S29" t="s">
+        <v>104</v>
+      </c>
+      <c r="T29" t="s">
+        <v>109</v>
+      </c>
+      <c r="U29">
+        <v>775</v>
+      </c>
+      <c r="V29">
+        <v>18775</v>
+      </c>
+      <c r="W29">
+        <v>43</v>
+      </c>
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="Y29">
+        <v>4</v>
+      </c>
+      <c r="Z29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>29.5</v>
+      </c>
+      <c r="AB29">
+        <v>70</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>3</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>12</v>
+      </c>
+      <c r="AM29">
+        <v>3</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS29">
+        <v>5099</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF29">
+        <v>223983</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ29">
+        <v>46158</v>
+      </c>
+      <c r="CL29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:90">
+      <c r="A30" s="1">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30">
+        <v>980181</v>
+      </c>
+      <c r="J30">
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>47567896</v>
+      </c>
+      <c r="M30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N30">
+        <v>33.796378</v>
+      </c>
+      <c r="O30">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P30">
+        <v>47477</v>
+      </c>
+      <c r="Q30">
+        <v>142</v>
+      </c>
+      <c r="R30">
+        <v>150</v>
+      </c>
+      <c r="S30" t="s">
+        <v>104</v>
+      </c>
+      <c r="T30" t="s">
+        <v>109</v>
+      </c>
+      <c r="U30">
+        <v>775</v>
+      </c>
+      <c r="V30">
+        <v>18775</v>
+      </c>
+      <c r="W30">
+        <v>43</v>
+      </c>
+      <c r="X30">
+        <v>4</v>
+      </c>
+      <c r="Y30">
+        <v>4</v>
+      </c>
+      <c r="Z30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>29.5</v>
+      </c>
+      <c r="AB30">
+        <v>190</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>4</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>12</v>
+      </c>
+      <c r="AM30">
+        <v>4</v>
+      </c>
+      <c r="AN30">
+        <v>4</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS30">
+        <v>5099</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF30">
+        <v>223983</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ30">
+        <v>46158</v>
+      </c>
+      <c r="CL30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:90">
+      <c r="A31" s="1">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31">
+        <v>980181</v>
+      </c>
+      <c r="J31">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>47567906</v>
+      </c>
+      <c r="M31" t="s">
+        <v>101</v>
+      </c>
+      <c r="N31">
+        <v>33.796378</v>
+      </c>
+      <c r="O31">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P31">
+        <v>47477</v>
+      </c>
+      <c r="Q31">
+        <v>143</v>
+      </c>
+      <c r="R31">
+        <v>150</v>
+      </c>
+      <c r="S31" t="s">
+        <v>104</v>
+      </c>
+      <c r="T31" t="s">
+        <v>109</v>
+      </c>
+      <c r="U31">
+        <v>775</v>
+      </c>
+      <c r="V31">
+        <v>18775</v>
+      </c>
+      <c r="W31">
+        <v>43</v>
+      </c>
+      <c r="X31">
+        <v>4</v>
+      </c>
+      <c r="Y31">
+        <v>4</v>
+      </c>
+      <c r="Z31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>29.5</v>
+      </c>
+      <c r="AB31">
+        <v>300</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>2</v>
+      </c>
+      <c r="AI31">
+        <v>5</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>12</v>
+      </c>
+      <c r="AM31">
+        <v>5</v>
+      </c>
+      <c r="AN31">
+        <v>5</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS31">
+        <v>5099</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF31">
+        <v>223983</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ31">
+        <v>46158</v>
+      </c>
+      <c r="CL31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:90">
+      <c r="A32" s="1">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32">
+        <v>980181</v>
+      </c>
+      <c r="J32">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>47567889</v>
+      </c>
+      <c r="M32" t="s">
+        <v>101</v>
+      </c>
+      <c r="N32">
+        <v>33.796378</v>
+      </c>
+      <c r="O32">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P32">
+        <v>47477</v>
+      </c>
+      <c r="Q32">
+        <v>141</v>
+      </c>
+      <c r="R32">
+        <v>150</v>
+      </c>
+      <c r="S32" t="s">
+        <v>105</v>
+      </c>
+      <c r="T32" t="s">
+        <v>109</v>
+      </c>
+      <c r="U32">
+        <v>2585</v>
+      </c>
+      <c r="V32">
+        <v>20585</v>
+      </c>
+      <c r="W32">
+        <v>43</v>
+      </c>
+      <c r="X32">
+        <v>4</v>
+      </c>
+      <c r="Y32">
+        <v>4</v>
+      </c>
+      <c r="Z32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>29.5</v>
+      </c>
+      <c r="AB32">
+        <v>70</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>12</v>
+      </c>
+      <c r="AM32">
+        <v>3</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS32">
+        <v>5099</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF32">
+        <v>223983</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ32">
+        <v>46158</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:90">
+      <c r="A33" s="1">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33">
+        <v>980181</v>
+      </c>
+      <c r="J33">
+        <v>27</v>
+      </c>
+      <c r="K33" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>47567899</v>
+      </c>
+      <c r="M33" t="s">
+        <v>101</v>
+      </c>
+      <c r="N33">
+        <v>33.796378</v>
+      </c>
+      <c r="O33">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P33">
+        <v>47477</v>
+      </c>
+      <c r="Q33">
+        <v>142</v>
+      </c>
+      <c r="R33">
+        <v>150</v>
+      </c>
+      <c r="S33" t="s">
+        <v>105</v>
+      </c>
+      <c r="T33" t="s">
+        <v>109</v>
+      </c>
+      <c r="U33">
+        <v>2585</v>
+      </c>
+      <c r="V33">
+        <v>20585</v>
+      </c>
+      <c r="W33">
+        <v>43</v>
+      </c>
+      <c r="X33">
+        <v>4</v>
+      </c>
+      <c r="Y33">
+        <v>4</v>
+      </c>
+      <c r="Z33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>29.5</v>
+      </c>
+      <c r="AB33">
+        <v>190</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>12</v>
+      </c>
+      <c r="AM33">
+        <v>4</v>
+      </c>
+      <c r="AN33">
+        <v>4</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS33">
+        <v>5099</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF33">
+        <v>223983</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ33">
+        <v>46158</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:90">
+      <c r="A34" s="1">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34">
+        <v>980181</v>
+      </c>
+      <c r="J34">
+        <v>37</v>
+      </c>
+      <c r="K34" t="s">
+        <v>100</v>
+      </c>
+      <c r="L34">
+        <v>47567909</v>
+      </c>
+      <c r="M34" t="s">
+        <v>101</v>
+      </c>
+      <c r="N34">
+        <v>33.796378</v>
+      </c>
+      <c r="O34">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P34">
+        <v>47477</v>
+      </c>
+      <c r="Q34">
+        <v>143</v>
+      </c>
+      <c r="R34">
+        <v>150</v>
+      </c>
+      <c r="S34" t="s">
+        <v>105</v>
+      </c>
+      <c r="T34" t="s">
+        <v>109</v>
+      </c>
+      <c r="U34">
+        <v>2585</v>
+      </c>
+      <c r="V34">
+        <v>20585</v>
+      </c>
+      <c r="W34">
+        <v>43</v>
+      </c>
+      <c r="X34">
+        <v>4</v>
+      </c>
+      <c r="Y34">
+        <v>4</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>29.5</v>
+      </c>
+      <c r="AB34">
+        <v>300</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34">
+        <v>2</v>
+      </c>
+      <c r="AI34">
+        <v>2</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>12</v>
+      </c>
+      <c r="AM34">
+        <v>5</v>
+      </c>
+      <c r="AN34">
+        <v>5</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS34">
+        <v>5099</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF34">
+        <v>223983</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ34">
+        <v>46158</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:90">
+      <c r="A35" s="1">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35">
+        <v>980181</v>
+      </c>
+      <c r="J35">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35">
+        <v>47567890</v>
+      </c>
+      <c r="M35" t="s">
+        <v>101</v>
+      </c>
+      <c r="N35">
+        <v>33.796378</v>
+      </c>
+      <c r="O35">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P35">
+        <v>47477</v>
+      </c>
+      <c r="Q35">
+        <v>141</v>
+      </c>
+      <c r="R35">
+        <v>150</v>
+      </c>
+      <c r="S35" t="s">
+        <v>106</v>
+      </c>
+      <c r="T35" t="s">
+        <v>109</v>
+      </c>
+      <c r="U35">
+        <v>66911</v>
+      </c>
+      <c r="V35">
+        <v>132447</v>
+      </c>
+      <c r="W35">
+        <v>40</v>
+      </c>
+      <c r="X35">
+        <v>4</v>
+      </c>
+      <c r="Y35">
+        <v>4</v>
+      </c>
+      <c r="Z35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>29.5</v>
+      </c>
+      <c r="AB35">
+        <v>70</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>3</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>12</v>
+      </c>
+      <c r="AM35">
+        <v>3</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS35">
+        <v>5099</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF35">
+        <v>223983</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ35">
+        <v>46158</v>
+      </c>
+      <c r="CL35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:90">
+      <c r="A36" s="1">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36">
+        <v>980181</v>
+      </c>
+      <c r="J36">
+        <v>28</v>
+      </c>
+      <c r="K36" t="s">
+        <v>100</v>
+      </c>
+      <c r="L36">
+        <v>47567900</v>
+      </c>
+      <c r="M36" t="s">
+        <v>101</v>
+      </c>
+      <c r="N36">
+        <v>33.796378</v>
+      </c>
+      <c r="O36">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P36">
+        <v>47477</v>
+      </c>
+      <c r="Q36">
+        <v>142</v>
+      </c>
+      <c r="R36">
+        <v>150</v>
+      </c>
+      <c r="S36" t="s">
+        <v>106</v>
+      </c>
+      <c r="T36" t="s">
+        <v>109</v>
+      </c>
+      <c r="U36">
+        <v>66911</v>
+      </c>
+      <c r="V36">
+        <v>132447</v>
+      </c>
+      <c r="W36">
+        <v>40</v>
+      </c>
+      <c r="X36">
+        <v>4</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>29.5</v>
+      </c>
+      <c r="AB36">
+        <v>190</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>2</v>
+      </c>
+      <c r="AH36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>4</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>12</v>
+      </c>
+      <c r="AM36">
+        <v>4</v>
+      </c>
+      <c r="AN36">
+        <v>4</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS36">
+        <v>5099</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF36">
+        <v>223983</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ36">
+        <v>46158</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:90">
+      <c r="A37" s="1">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37">
+        <v>980181</v>
+      </c>
+      <c r="J37">
+        <v>38</v>
+      </c>
+      <c r="K37" t="s">
+        <v>100</v>
+      </c>
+      <c r="L37">
+        <v>47567910</v>
+      </c>
+      <c r="M37" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37">
+        <v>33.796378</v>
+      </c>
+      <c r="O37">
+        <v>-93.38948600000001</v>
+      </c>
+      <c r="P37">
+        <v>47477</v>
+      </c>
+      <c r="Q37">
+        <v>143</v>
+      </c>
+      <c r="R37">
+        <v>150</v>
+      </c>
+      <c r="S37" t="s">
+        <v>106</v>
+      </c>
+      <c r="T37" t="s">
+        <v>109</v>
+      </c>
+      <c r="U37">
+        <v>66911</v>
+      </c>
+      <c r="V37">
+        <v>132447</v>
+      </c>
+      <c r="W37">
+        <v>40</v>
+      </c>
+      <c r="X37">
+        <v>4</v>
+      </c>
+      <c r="Y37">
+        <v>4</v>
+      </c>
+      <c r="Z37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>29.5</v>
+      </c>
+      <c r="AB37">
+        <v>300</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>2</v>
+      </c>
+      <c r="AH37">
+        <v>2</v>
+      </c>
+      <c r="AI37">
+        <v>5</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>12</v>
+      </c>
+      <c r="AM37">
+        <v>5</v>
+      </c>
+      <c r="AN37">
+        <v>5</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS37">
+        <v>5099</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF37">
+        <v>223983</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ37">
+        <v>46158</v>
+      </c>
+      <c r="CL37" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
